--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1391.213070635356</v>
+        <v>1085.948207393951</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.001999855041503906</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.43831051044998</v>
+        <v>25.94820739395058</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.175076273160455</v>
+        <v>4.055613393803704</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.889836398081229</v>
+        <v>4.055613393803704</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>961.3199999999858</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>406.7400000000001</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,23 +617,12 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -931,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.624823803610445</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -969,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1049,93 +1038,9 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>188.139999999999</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>202.874999999999</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1165,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>194.5699999999991</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>199.2949999999988</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1187,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>195.7799999999989</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>134.1300000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>149.0750000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>137.7750000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>146.0250000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>140.6050000000001</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>81.95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1264,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>71.19000000000058</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>77.00500000000058</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1286,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>79.91000000000058</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1297,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>84.56000000000058</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>188.1399999999986</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>202.8749999999986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>194.5699999999989</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>199.2949999999983</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>195.7799999999985</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>81.95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>71.19000000000058</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>77.00500000000058</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>79.91000000000058</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>84.56000000000058</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>88.13999999999862</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>102.8749999999986</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>94.56999999999886</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1597,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>99.29499999999831</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1608,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>95.77999999999847</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1652,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1816,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1827,7 +1732,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1838,7 +1743,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1849,7 +1754,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1860,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1798,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1809,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2070,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2081,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2092,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2103,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,7 +2114,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
